--- a/SQLite3 - Chinook.xlsx
+++ b/SQLite3 - Chinook.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="commands" sheetId="3" r:id="rId1"/>
+    <sheet name="Commands Summary" sheetId="3" r:id="rId1"/>
     <sheet name="Query 1" sheetId="2" r:id="rId2"/>
     <sheet name="Query 2" sheetId="4" r:id="rId3"/>
     <sheet name="Query 3" sheetId="5" r:id="rId4"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>SQL</t>
   </si>
@@ -68,15 +68,6 @@
     <t>.headers on</t>
   </si>
   <si>
-    <t>Showing all the artists and albums</t>
-  </si>
-  <si>
-    <t>where the artist name begins with</t>
-  </si>
-  <si>
-    <t>"The" in ascending order</t>
-  </si>
-  <si>
     <t>FROM artists</t>
   </si>
   <si>
@@ -101,15 +92,6 @@
     <t>Query 1: artists whose name begins with "The" and the number of albums they have</t>
   </si>
   <si>
-    <t>Query 3: subquery in the FROM</t>
-  </si>
-  <si>
-    <t>Query 4: subquery in the WHERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query 5: </t>
-  </si>
-  <si>
     <t>SELECT c.CustomerId as cus_id, c.Company AS cus_name,</t>
   </si>
   <si>
@@ -138,6 +120,54 @@
   </si>
   <si>
     <t xml:space="preserve">Query 2: subquery in the SELECT to show latest customer ID and quantity purchased where </t>
+  </si>
+  <si>
+    <t>SELECT *</t>
+  </si>
+  <si>
+    <t>FROM albums, (SELECT Name, AlbumId, GenreId</t>
+  </si>
+  <si>
+    <t>FROM tracks) AS track_names</t>
+  </si>
+  <si>
+    <t>WHERE albums.AlbumId = track_names.AlbumId</t>
+  </si>
+  <si>
+    <t>LIMIT 100;</t>
+  </si>
+  <si>
+    <t>FROM customers</t>
+  </si>
+  <si>
+    <t>WHERE SupportRepId NOT IN (SELECT EmployeeId</t>
+  </si>
+  <si>
+    <t>FROM employees);</t>
+  </si>
+  <si>
+    <t>Query 4: subquery in the WHERE. To make sure all customers have an Employee Rep assigned to the account</t>
+  </si>
+  <si>
+    <t>No results which is good</t>
+  </si>
+  <si>
+    <t>Query 3: subquery in the FROM. Show albums and associated tracks for the first 100 records</t>
+  </si>
+  <si>
+    <t>Names of each rep associated assigned to each customer</t>
+  </si>
+  <si>
+    <t>SELECT customers.Company, customers.FirstName || ' ' || customers.LastName AS Contact,  customers.Phone, employees.FirstName || ' ' || employees.LastName AS Account_manager</t>
+  </si>
+  <si>
+    <t>JOIN employees</t>
+  </si>
+  <si>
+    <t>ON customers.SupportRepId = employees.EmployeeId;</t>
+  </si>
+  <si>
+    <t>Query 5: show all the reps (account managers) assigned to each customer account</t>
   </si>
 </sst>
 </file>
@@ -193,9 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -210,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,16 +500,145 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>391686</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="8316486" cy="6963747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67961</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="9211961" cy="990738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>107002</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>87019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="723900"/>
+          <a:ext cx="15956602" cy="9269119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>96508</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>638</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>186070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,7 +656,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="190500"/>
-          <a:ext cx="9011908" cy="4572638"/>
+          <a:ext cx="11630025" cy="5901070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -775,10 +934,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:T45"/>
+  <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +945,9 @@
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="41.7109375" customWidth="1"/>
+    <col min="10" max="10" width="36" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" customWidth="1"/>
+    <col min="16" max="16" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -833,125 +995,149 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="3" t="s">
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="4" t="s">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4" t="s">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +1154,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
@@ -1005,13 +1191,12 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1020,15 +1205,20 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1037,15 +1227,20 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1056,7 +1251,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
